--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T10:26:00+00:00</t>
+    <t>2022-03-28T10:34:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -995,40 +995,43 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When scheduled</t>
+  </si>
+  <si>
+    <t>The time when this communication is to occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>occurrencePeriod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>When scheduled</t>
-  </si>
-  <si>
-    <t>The time when this communication is to occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>occurrencePeriod</t>
+    <t>occurrenceDateTime</t>
   </si>
   <si>
     <t>CommunicationRequest.authoredOn</t>
   </si>
   <si>
     <t xml:space="preserve">createdOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -1478,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL46"/>
+  <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1488,7 +1491,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5533,7 +5536,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>84</v>
@@ -5654,7 +5657,7 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>312</v>
@@ -5737,15 +5740,17 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>84</v>
@@ -5760,13 +5765,13 @@
         <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5817,7 +5822,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5832,10 +5837,10 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5843,11 +5848,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5866,13 +5871,13 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5923,7 +5928,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5938,29 +5943,29 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>333</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -5969,16 +5974,16 @@
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6029,13 +6034,13 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
@@ -6044,18 +6049,18 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6066,7 +6071,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -6075,16 +6080,16 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6135,13 +6140,13 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
@@ -6150,10 +6155,10 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6161,7 +6166,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6172,7 +6177,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>75</v>
@@ -6184,17 +6189,15 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>75</v>
@@ -6219,13 +6222,13 @@
         <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>75</v>
@@ -6243,13 +6246,13 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
@@ -6258,18 +6261,18 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6292,15 +6295,17 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>235</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>75</v>
@@ -6325,13 +6330,13 @@
         <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>75</v>
@@ -6349,7 +6354,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6364,18 +6369,18 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6395,16 +6400,16 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6455,7 +6460,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6470,17 +6475,123 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>362</v>
+      <c r="AK47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL46">
+  <autoFilter ref="A1:AL47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6490,7 +6601,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T10:34:42+00:00</t>
+    <t>2022-03-29T08:34:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:34:27+00:00</t>
+    <t>2022-04-13T16:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -725,7 +725,7 @@
     <t>The status of the proposal or order.</t>
   </si>
   <si>
-    <t>completed</t>
+    <t>in-progress</t>
   </si>
   <si>
     <t>required</t>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>77</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:38:37+00:00</t>
+    <t>2022-04-13T16:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:44:13+00:00</t>
+    <t>2022-04-13T17:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T17:02:09+00:00</t>
+    <t>2022-04-18T14:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:20:50+00:00</t>
+    <t>2022-04-18T14:45:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:45:03+00:00</t>
+    <t>2022-04-18T14:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -975,8 +975,8 @@
     <t>CommunicationRequest.payload.content[x]</t>
   </si>
   <si>
-    <t>string
-AttachmentReference(Resource)</t>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>Message part content</t>
@@ -985,7 +985,31 @@
     <t>The communicated content (or for multi-part communications, one portion of the communication).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.note</t>
+  </si>
+  <si>
+    <t>contentAttachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>contentString</t>
+  </si>
+  <si>
+    <t>contentReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Parameters)
+</t>
   </si>
   <si>
     <t>CommunicationRequest.occurrence[x]</t>
@@ -1003,13 +1027,6 @@
   </si>
   <si>
     <t>The time when this communication is to occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Request.occurrence[x]</t>
@@ -1481,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL47"/>
+  <dimension ref="A1:AL50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4990,7 +5007,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>293</v>
       </c>
@@ -5000,13 +5017,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5490,16 +5507,14 @@
         <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>304</v>
@@ -5517,7 +5532,7 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5528,18 +5543,20 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="C38" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>75</v>
@@ -5548,16 +5565,16 @@
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5596,20 +5613,22 @@
         <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>315</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>84</v>
@@ -5621,10 +5640,10 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5632,13 +5651,13 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5654,16 +5673,16 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5714,10 +5733,10 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>84</v>
@@ -5729,24 +5748,24 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5756,22 +5775,22 @@
         <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5822,10 +5841,10 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>84</v>
@@ -5837,10 +5856,10 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5848,15 +5867,15 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>84</v>
@@ -5871,13 +5890,13 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5916,19 +5935,17 @@
         <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5943,10 +5960,10 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5954,18 +5971,20 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="C42" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -5977,13 +5996,13 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6034,7 +6053,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6049,29 +6068,31 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="C43" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -6080,16 +6101,16 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6140,13 +6161,13 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
@@ -6155,10 +6176,10 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6166,11 +6187,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6189,13 +6210,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6246,7 +6267,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6261,10 +6282,10 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6272,18 +6293,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>75</v>
+        <v>333</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
@@ -6295,17 +6316,15 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>75</v>
@@ -6330,13 +6349,13 @@
         <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>75</v>
@@ -6354,13 +6373,13 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
@@ -6369,18 +6388,18 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6400,16 +6419,16 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6460,7 +6479,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6475,18 +6494,18 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6497,7 +6516,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -6506,16 +6525,16 @@
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6566,13 +6585,13 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
@@ -6581,17 +6600,337 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>363</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL47">
+  <autoFilter ref="A1:AL50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6601,7 +6940,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>[Profile] - Communication Request</t>
+    <t>[Profile] - Ask for prediction</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:58:53+00:00</t>
+    <t>2022-04-20T08:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -900,21 +900,10 @@
     <t>Don't use CommunicationRequest.about element when a more specific element exists, such as basedOn, reasonReference, or replaces.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
     <t>Request.supportingInfo</t>
   </si>
   <si>
     <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>ModelVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device)
-</t>
   </si>
   <si>
     <t>CommunicationRequest.encounter</t>
@@ -1498,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL50"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4755,14 +4744,16 @@
         <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>278</v>
@@ -4780,22 +4771,20 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4807,25 +4796,25 @@
         <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4875,13 +4864,13 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>75</v>
@@ -4890,18 +4879,18 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4909,32 +4898,30 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>75</v>
@@ -4983,13 +4970,13 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
@@ -4998,18 +4985,18 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5017,13 +5004,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5032,13 +5019,13 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5089,19 +5076,19 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -5110,23 +5097,23 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>75</v>
@@ -5138,15 +5125,17 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>75</v>
@@ -5195,19 +5184,19 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
@@ -5221,11 +5210,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5238,24 +5227,26 @@
         <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>104</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5303,7 +5294,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5324,48 +5315,44 @@
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5401,56 +5388,56 @@
         <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>75</v>
@@ -5462,13 +5449,13 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5507,17 +5494,19 @@
         <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>84</v>
@@ -5532,7 +5521,7 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5543,10 +5532,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>75</v>
@@ -5568,13 +5557,13 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>312</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5625,7 +5614,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>84</v>
@@ -5640,7 +5629,7 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -5649,25 +5638,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5676,13 +5665,13 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5733,7 +5722,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>84</v>
@@ -5748,7 +5737,7 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5757,15 +5746,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5775,22 +5762,22 @@
         <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>315</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5829,22 +5816,20 @@
         <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>84</v>
@@ -5856,10 +5841,10 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5867,18 +5852,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="C41" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>75</v>
@@ -5890,13 +5877,13 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5935,17 +5922,19 @@
         <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5960,10 +5949,10 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5971,20 +5960,20 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -5996,13 +5985,13 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6053,7 +6042,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6068,10 +6057,10 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6079,17 +6068,15 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>84</v>
@@ -6104,13 +6091,13 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6161,7 +6148,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6176,10 +6163,10 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6187,11 +6174,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6210,13 +6197,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6267,7 +6254,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6282,29 +6269,29 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
@@ -6313,16 +6300,16 @@
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6373,13 +6360,13 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
@@ -6388,18 +6375,18 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>339</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6410,7 +6397,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -6419,16 +6406,16 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6479,13 +6466,13 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
@@ -6494,10 +6481,10 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6505,7 +6492,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6516,7 +6503,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -6528,7 +6515,7 @@
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>348</v>
@@ -6536,7 +6523,9 @@
       <c r="L47" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -6561,13 +6550,13 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
@@ -6585,13 +6574,13 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
@@ -6600,18 +6589,18 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6634,17 +6623,15 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>235</v>
+        <v>357</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>75</v>
@@ -6669,13 +6656,13 @@
         <v>75</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>75</v>
@@ -6693,7 +6680,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6708,18 +6695,18 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6739,16 +6726,16 @@
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6799,7 +6786,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6814,123 +6801,17 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J50" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL50">
+  <autoFilter ref="A1:AL49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6940,7 +6821,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:29:01+00:00</t>
+    <t>2022-04-20T08:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -997,7 +997,7 @@
     <t>contentReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Parameters)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/example/StructureDefinition/MLParameter)
 </t>
   </si>
   <si>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>[Profile] - Ask for prediction</t>
+    <t>Request for prediction</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:41:13+00:00</t>
+    <t>2022-04-20T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T08:59:23+00:00</t>
+    <t>2022-07-06T15:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3494,10 +3494,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
@@ -4901,7 +4901,7 @@
         <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>85</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>84</v>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T15:59:32+00:00</t>
+    <t>2022-07-07T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-07T15:44:13+00:00</t>
+    <t>2022-07-08T12:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T12:00:34+00:00</t>
+    <t>2022-07-08T18:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -997,7 +997,7 @@
     <t>contentReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/example/StructureDefinition/MLParameter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/example/StructureDefinition/MLParameterRequest)
 </t>
   </si>
   <si>
@@ -3484,7 +3484,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>192</v>
       </c>
@@ -3494,13 +3494,13 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T18:36:24+00:00</t>
+    <t>2022-07-09T09:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T09:32:33+00:00</t>
+    <t>2022-07-14T15:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -723,9 +723,6 @@
   </si>
   <si>
     <t>The status of the proposal or order.</t>
-  </si>
-  <si>
-    <t>in-progress</t>
   </si>
   <si>
     <t>required</t>
@@ -1496,40 +1493,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="68.80859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -3963,28 +3960,28 @@
         <v>75</v>
       </c>
       <c r="R23" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
+      <c r="X23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>75</v>
@@ -4017,10 +4014,10 @@
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4028,11 +4025,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4051,16 +4048,16 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4089,7 +4086,7 @@
         <v>150</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s" s="2">
         <v>75</v>
@@ -4110,7 +4107,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4125,18 +4122,18 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4159,16 +4156,16 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4179,7 +4176,7 @@
         <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>75</v>
@@ -4197,11 +4194,11 @@
         <v>150</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4236,7 +4233,7 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4244,7 +4241,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4270,10 +4267,10 @@
         <v>160</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4281,35 +4278,35 @@
         <v>75</v>
       </c>
       <c r="P26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Q26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4326,7 +4323,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4341,10 +4338,10 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4352,11 +4349,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4375,23 +4372,23 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -4436,7 +4433,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4451,7 +4448,7 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
@@ -4462,7 +4459,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4485,13 +4482,13 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4521,11 +4518,11 @@
         <v>150</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4542,7 +4539,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4568,11 +4565,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4591,13 +4588,13 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4648,7 +4645,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4663,10 +4660,10 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4674,7 +4671,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4700,13 +4697,13 @@
         <v>202</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4756,7 +4753,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4771,10 +4768,10 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4782,7 +4779,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4805,16 +4802,16 @@
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4864,7 +4861,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4879,10 +4876,10 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4913,13 +4910,13 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4970,7 +4967,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4996,7 +4993,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5102,7 +5099,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5210,11 +5207,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5236,10 +5233,10 @@
         <v>104</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>107</v>
@@ -5294,7 +5291,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5320,7 +5317,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5343,13 +5340,13 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5388,17 +5385,17 @@
         <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>84</v>
@@ -5413,7 +5410,7 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -5424,10 +5421,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>75</v>
@@ -5449,13 +5446,13 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5506,7 +5503,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>84</v>
@@ -5521,7 +5518,7 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5532,10 +5529,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>75</v>
@@ -5560,10 +5557,10 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5614,7 +5611,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>84</v>
@@ -5629,7 +5626,7 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -5640,10 +5637,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>75</v>
@@ -5665,13 +5662,13 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5722,7 +5719,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>84</v>
@@ -5737,7 +5734,7 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5748,11 +5745,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5771,13 +5768,13 @@
         <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5816,17 +5813,17 @@
         <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5841,10 +5838,10 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5852,13 +5849,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5877,13 +5874,13 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5934,7 +5931,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5949,10 +5946,10 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5960,13 +5957,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5985,13 +5982,13 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6042,7 +6039,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6057,10 +6054,10 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6068,11 +6065,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6091,13 +6088,13 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6148,7 +6145,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6163,10 +6160,10 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6174,11 +6171,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6197,13 +6194,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6254,7 +6251,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6269,18 +6266,18 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6303,13 +6300,13 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6360,7 +6357,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6375,10 +6372,10 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6386,7 +6383,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6409,13 +6406,13 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6466,7 +6463,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6481,10 +6478,10 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6492,7 +6489,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6515,16 +6512,16 @@
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6553,11 +6550,11 @@
         <v>150</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6574,7 +6571,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6589,18 +6586,18 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6623,13 +6620,13 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6680,7 +6677,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6695,18 +6692,18 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6729,13 +6726,13 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6786,7 +6783,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6801,13 +6798,13 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T15:59:36+00:00</t>
+    <t>2022-07-14T16:27:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/example/StructureDefinition/OBSCDSSInitializer</t>
+    <t>https://joofio.github.io/obs-cdss-fhir//StructureDefinition/OBSCDSSInitializer</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T16:27:57+00:00</t>
+    <t>2022-07-15T07:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -994,7 +994,7 @@
     <t>contentReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/example/StructureDefinition/MLParameterRequest)
+    <t xml:space="preserve">Reference(https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLParameterRequest)
 </t>
   </si>
   <si>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:25:18+00:00</t>
+    <t>2022-07-15T07:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://joofio.github.io/obs-cdss-fhir//StructureDefinition/OBSCDSSInitializer</t>
+    <t>https://joofio.github.io/obs-cdss-fhir/StructureDefinition/OBSCDSSInitializer</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:32:14+00:00</t>
+    <t>2022-07-15T07:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -994,7 +994,7 @@
     <t>contentReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLParameterRequest)
+    <t xml:space="preserve">Reference(https://joofio.github.io/obs-cdss-fhir/StructureDefinition/MLParameterRequest)
 </t>
   </si>
   <si>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Request for prediction</t>
+    <t>Prediction Request Meta Information</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:33:23+00:00</t>
+    <t>2022-07-18T07:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-OBSCDSSInitializer.xlsx
+++ b/StructureDefinition-OBSCDSSInitializer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T07:59:46+00:00</t>
+    <t>2022-08-18T10:28:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
